--- a/documents/Results.xlsx
+++ b/documents/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artem\Documents\Projects\SER\SER_new\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\SER\neuro\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9339C490-DDF1-4107-A11D-0A183A1443A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE1EDED-4F4B-4D9D-AFFF-E0E6A006AB60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="910" yWindow="-110" windowWidth="18400" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-9120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Validation Loss</t>
   </si>
@@ -73,6 +73,69 @@
   </si>
   <si>
     <t>0.865</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
+    <t>1.323</t>
+  </si>
+  <si>
+    <t>0.882</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.780</t>
+  </si>
+  <si>
+    <t>Emotion</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>RAMAS(binary)</t>
+  </si>
+  <si>
+    <t>0.363</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.915</t>
+  </si>
+  <si>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.639</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>0.867</t>
+  </si>
+  <si>
+    <t>RAMAS</t>
+  </si>
+  <si>
+    <t>RBF SVM</t>
   </si>
 </sst>
 </file>
@@ -123,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -132,6 +195,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -412,22 +478,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D4:G18"/>
+  <dimension ref="D4:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:G7"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.36328125" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:7" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="4:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="4:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -439,7 +505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
@@ -453,7 +519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
@@ -467,7 +533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="4:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
         <v>2</v>
@@ -479,7 +545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
         <v>0</v>
       </c>
@@ -493,7 +559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
@@ -507,7 +573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="4:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:7" ht="45" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
         <v>2</v>
       </c>
@@ -518,23 +584,148 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D21" s="4"/>
+      <c r="E21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="D20:D21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/documents/Results.xlsx
+++ b/documents/Results.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artem\Documents\Projects\SER\SER_new\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\SER\neuro\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342236E1-FC46-4C96-B6C7-B2DA602A11A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0C3C204-A2A8-405D-B454-935B451C0F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="910" yWindow="-110" windowWidth="18400" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-9120" windowWidth="15990" windowHeight="25440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры моделей" sheetId="2" r:id="rId1"/>
     <sheet name="Результаты моделей" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
   <si>
     <t>RAMAS (descrete)</t>
   </si>
@@ -247,7 +248,13 @@
     <t>512x7x7</t>
   </si>
   <si>
-    <t>VGG</t>
+    <t>Базовая модель 1</t>
+  </si>
+  <si>
+    <t>Базовая модель 2</t>
+  </si>
+  <si>
+    <t>Предлагаемая модель</t>
   </si>
 </sst>
 </file>
@@ -255,7 +262,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -294,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -476,19 +483,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -538,6 +602,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -820,400 +902,400 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84732B74-6AAC-4E5F-984C-4BC329CA9350}">
   <dimension ref="D4:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.81640625" customWidth="1"/>
-    <col min="5" max="5" width="58.08984375" customWidth="1"/>
-    <col min="6" max="6" width="22.90625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="58.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="26" t="s">
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+    </row>
+    <row r="5" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D6" s="11" t="s">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D7" s="6" t="s">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D8" s="6" t="s">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D9" s="6" t="s">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D10" s="6" t="s">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D11" s="6" t="s">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D12" s="6" t="s">
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D13" s="6" t="s">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D14" s="6" t="s">
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D15" s="6" t="s">
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D16" s="6" t="s">
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D17" s="6" t="s">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D18" s="6" t="s">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D19" s="6" t="s">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="7">
+      <c r="F19" s="4">
         <v>25088</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D20" s="6" t="s">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D21" s="6" t="s">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="7">
+      <c r="F21" s="4">
         <v>2048</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D22" s="6" t="s">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="7">
+      <c r="F22" s="4">
         <v>512</v>
       </c>
     </row>
-    <row r="23" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D23" s="8" t="s">
+    <row r="23" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="3" t="s">
+    <row r="27" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D28" s="13" t="s">
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+    </row>
+    <row r="28" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="4:6" ht="16" x14ac:dyDescent="0.45">
-      <c r="D29" s="16" t="s">
+    <row r="29" spans="4:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D29" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="4:6" ht="16" x14ac:dyDescent="0.45">
-      <c r="D30" s="19" t="s">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="4:6" ht="16" x14ac:dyDescent="0.45">
-      <c r="D31" s="19" t="s">
+    <row r="31" spans="4:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D31" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="4:6" ht="16" x14ac:dyDescent="0.45">
-      <c r="D32" s="19" t="s">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="4:6" ht="16" x14ac:dyDescent="0.45">
-      <c r="D33" s="19" t="s">
+    <row r="33" spans="4:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D33" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="4:6" ht="16" x14ac:dyDescent="0.45">
-      <c r="D34" s="19" t="s">
+    <row r="34" spans="4:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D34" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="4:6" ht="16" x14ac:dyDescent="0.45">
-      <c r="D35" s="19" t="s">
+    <row r="35" spans="4:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D35" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="4:6" ht="16" x14ac:dyDescent="0.45">
-      <c r="D36" s="19" t="s">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="4:6" ht="16" x14ac:dyDescent="0.45">
-      <c r="D37" s="19" t="s">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21">
+      <c r="E37" s="17"/>
+      <c r="F37" s="18">
         <v>6400</v>
       </c>
     </row>
-    <row r="38" spans="4:6" ht="16" x14ac:dyDescent="0.45">
-      <c r="D38" s="19" t="s">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="4:6" ht="16" x14ac:dyDescent="0.45">
-      <c r="D39" s="19" t="s">
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21">
+      <c r="E39" s="17"/>
+      <c r="F39" s="18">
         <v>2048</v>
       </c>
     </row>
-    <row r="40" spans="4:6" ht="16" x14ac:dyDescent="0.45">
-      <c r="D40" s="19" t="s">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21">
+      <c r="E40" s="17"/>
+      <c r="F40" s="18">
         <v>512</v>
       </c>
     </row>
-    <row r="41" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D41" s="22" t="s">
+    <row r="41" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="24" t="s">
+      <c r="E41" s="20"/>
+      <c r="F41" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>55</v>
       </c>
@@ -1230,430 +1312,432 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69F2DD3-9123-4945-92C4-4A5C939C3AA7}">
-  <dimension ref="D3:O34"/>
+  <dimension ref="C3:O47"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="E4" t="s">
+    <row r="4" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D4" s="26"/>
+      <c r="E4" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D5" t="s">
+    <row r="5" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="29">
         <v>0.68756998880179099</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="29">
         <v>0.66972031236737095</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="29">
         <v>0.62396136115964995</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="30">
         <v>0.61336847921577098</v>
       </c>
     </row>
-    <row r="6" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D6" t="s">
+    <row r="6" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="29">
         <v>0.41598360655737698</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="29">
         <v>0.29468686972631802</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="29">
         <v>0.35333013787541201</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="30">
         <v>0.31536628357622398</v>
       </c>
     </row>
-    <row r="7" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D7" t="s">
+    <row r="7" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="31">
         <v>0.71232876712328697</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="31">
         <v>0.69722426922132097</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="31">
         <v>0.69847233895288396</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="32">
         <v>0.69781194559432203</v>
       </c>
     </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="E11" t="s">
+    <row r="11" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D11" s="26"/>
+      <c r="E11" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K11" s="37"/>
+      <c r="L11" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
+    <row r="12" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="29">
         <v>0.694408734602463</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="29">
         <v>0.67428770630715595</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="29">
         <v>0.63118572401189599</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="30">
         <v>0.63076619528760802</v>
       </c>
-      <c r="K12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="K12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="29">
         <v>0.71232876712328697</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="29">
         <v>0.69722426922132097</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="29">
         <v>0.69847233895288396</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="30">
         <v>0.69781194559432203</v>
       </c>
     </row>
-    <row r="13" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D13" t="s">
+    <row r="13" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="29">
         <v>0.47745901639344202</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="29">
         <v>0.43051105490958602</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="29">
         <v>0.42669564893143103</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="30">
         <v>0.38814970531461601</v>
       </c>
-      <c r="K13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="4">
+      <c r="K13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="29">
         <v>0.72945205479452002</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="29">
         <v>0.71470949263502404</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="29">
         <v>0.70754437138478199</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="30">
         <v>0.71034292243749897</v>
       </c>
     </row>
-    <row r="14" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D14" t="s">
+    <row r="14" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="31">
         <v>0.72945205479452002</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="31">
         <v>0.71470949263502404</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="31">
         <v>0.70754437138478199</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="32">
         <v>0.71034292243749897</v>
       </c>
-      <c r="K14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="5">
+      <c r="K14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="33">
         <v>0.77054794520547898</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="33">
         <v>0.76375456694605603</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="33">
         <v>0.742695407129084</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="34">
         <v>0.74930483476210596</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.71220604703247403</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.68465880967608606</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.66577779873908904</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0.67279797913555095</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.46721311475409799</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.54835589544415897</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.42385728380341797</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0.43547112012571298</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0.77054794520547898</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.76375456694605603</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0.742695407129084</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0.74930483476210596</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.78163493840985399</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.77377666859402305</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.77130623962225597</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0.76745408441376495</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.81762295081967196</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.81084265169349601</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.80414788211143196</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0.80170419635977697</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.83904109589041098</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.83145240874225201</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0.83803145345847796</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0.832534415102824</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E31" t="s">
+    <row r="37" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="23"/>
+      <c r="E38" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F38" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G38" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H38" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D32" t="s">
+    <row r="39" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E39" s="35">
+        <v>0.71220604703247403</v>
+      </c>
+      <c r="F39" s="35">
+        <v>0.68465880967608606</v>
+      </c>
+      <c r="G39" s="35">
+        <v>0.66577779873908904</v>
+      </c>
+      <c r="H39" s="36">
+        <v>0.67279797913555095</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="41"/>
+      <c r="D40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="29">
+        <v>0.46721311475409799</v>
+      </c>
+      <c r="F40" s="29">
+        <v>0.54835589544415897</v>
+      </c>
+      <c r="G40" s="29">
+        <v>0.42385728380341797</v>
+      </c>
+      <c r="H40" s="30">
+        <v>0.43547112012571298</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="41"/>
+      <c r="D41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="31">
+        <v>0.77054794520547898</v>
+      </c>
+      <c r="F41" s="31">
+        <v>0.76375456694605603</v>
+      </c>
+      <c r="G41" s="31">
+        <v>0.742695407129084</v>
+      </c>
+      <c r="H41" s="32">
+        <v>0.74930483476210596</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="29">
+        <v>0.78163493840985399</v>
+      </c>
+      <c r="F42" s="29">
+        <v>0.77377666859402305</v>
+      </c>
+      <c r="G42" s="29">
+        <v>0.77130623962225597</v>
+      </c>
+      <c r="H42" s="30">
+        <v>0.76745408441376495</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="41"/>
+      <c r="D43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="29">
+        <v>0.81762295081967196</v>
+      </c>
+      <c r="F43" s="29">
+        <v>0.81084265169349601</v>
+      </c>
+      <c r="G43" s="29">
+        <v>0.80414788211143196</v>
+      </c>
+      <c r="H43" s="30">
+        <v>0.80170419635977697</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="41"/>
+      <c r="D44" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="31">
+        <v>0.83904109589041098</v>
+      </c>
+      <c r="F44" s="31">
+        <v>0.83145240874225201</v>
+      </c>
+      <c r="G44" s="31">
+        <v>0.83803145345847796</v>
+      </c>
+      <c r="H44" s="32">
+        <v>0.832534415102824</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="29">
         <v>0.96864501679731196</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F45" s="29">
         <v>0.96897053656577803</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G45" s="29">
         <v>0.96866002548128505</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H45" s="30">
         <v>0.96864025846326696</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D33" t="s">
+    <row r="46" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="41"/>
+      <c r="D46" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E46" s="29">
         <v>0.93647540983606503</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F46" s="29">
         <v>0.93732726659925802</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G46" s="29">
         <v>0.93607064240224402</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H46" s="30">
         <v>0.936378967377819</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D34" t="s">
+    <row r="47" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="41"/>
+      <c r="D47" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E47" s="31">
         <v>0.92808219178082196</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F47" s="31">
         <v>0.93106060606060603</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G47" s="31">
         <v>0.92727742056601103</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H47" s="32">
         <v>0.92783759929390996</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/Results.xlsx
+++ b/documents/Results.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\SER\neuro\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artem\Documents\Projects\SER\SER_new\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0C3C204-A2A8-405D-B454-935B451C0F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8955CC3-303B-49A3-84E0-41108767CCC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-9120" windowWidth="15990" windowHeight="25440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="910" yWindow="-110" windowWidth="18400" windowHeight="12220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры моделей" sheetId="2" r:id="rId1"/>
     <sheet name="Результаты моделей" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
   <si>
     <t>RAMAS (descrete)</t>
   </si>
@@ -255,6 +254,45 @@
   </si>
   <si>
     <t>Предлагаемая модель</t>
+  </si>
+  <si>
+    <t>ang</t>
+  </si>
+  <si>
+    <t>hap</t>
+  </si>
+  <si>
+    <t>neu</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>dis</t>
+  </si>
+  <si>
+    <t>fea</t>
+  </si>
+  <si>
+    <t>shm</t>
+  </si>
+  <si>
+    <t>sur</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>IEMOCAP</t>
+  </si>
+  <si>
+    <t>RAMAS-descrete</t>
+  </si>
+  <si>
+    <t>RAMAS-binary</t>
   </si>
 </sst>
 </file>
@@ -301,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -543,11 +581,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -614,12 +691,52 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -906,21 +1023,21 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="58.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="58.1796875" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="40" t="s">
+    <row r="4" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="23" t="s">
         <v>5</v>
       </c>
@@ -931,7 +1048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
@@ -942,7 +1059,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
@@ -953,7 +1070,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
@@ -964,7 +1081,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
@@ -975,7 +1092,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
@@ -986,7 +1103,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
@@ -997,7 +1114,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1008,7 +1125,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1019,7 +1136,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1030,7 +1147,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1041,7 +1158,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1052,7 +1169,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1063,7 +1180,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1074,7 +1191,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1083,7 +1200,7 @@
         <v>25088</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1092,7 +1209,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1101,7 +1218,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1110,7 +1227,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="23" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D23" s="5" t="s">
         <v>26</v>
       </c>
@@ -1119,24 +1236,24 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="40" t="s">
+    <row r="27" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D27" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-    </row>
-    <row r="28" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+    </row>
+    <row r="28" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D28" s="10" t="s">
         <v>5</v>
       </c>
@@ -1147,7 +1264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="4:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:6" ht="16" x14ac:dyDescent="0.45">
       <c r="D29" s="13" t="s">
         <v>9</v>
       </c>
@@ -1158,7 +1275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:6" ht="16" x14ac:dyDescent="0.45">
       <c r="D30" s="16" t="s">
         <v>10</v>
       </c>
@@ -1169,7 +1286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="4:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:6" ht="16" x14ac:dyDescent="0.45">
       <c r="D31" s="16" t="s">
         <v>11</v>
       </c>
@@ -1180,7 +1297,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:6" ht="16" x14ac:dyDescent="0.45">
       <c r="D32" s="16" t="s">
         <v>12</v>
       </c>
@@ -1191,7 +1308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="4:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:6" ht="16" x14ac:dyDescent="0.45">
       <c r="D33" s="16" t="s">
         <v>13</v>
       </c>
@@ -1202,7 +1319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="4:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:6" ht="16" x14ac:dyDescent="0.45">
       <c r="D34" s="16" t="s">
         <v>14</v>
       </c>
@@ -1213,7 +1330,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="4:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:6" ht="16" x14ac:dyDescent="0.45">
       <c r="D35" s="16" t="s">
         <v>16</v>
       </c>
@@ -1224,7 +1341,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:6" ht="16" x14ac:dyDescent="0.45">
       <c r="D36" s="16" t="s">
         <v>15</v>
       </c>
@@ -1235,7 +1352,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:6" ht="16" x14ac:dyDescent="0.45">
       <c r="D37" s="16" t="s">
         <v>22</v>
       </c>
@@ -1244,7 +1361,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:6" ht="16" x14ac:dyDescent="0.45">
       <c r="D38" s="16" t="s">
         <v>23</v>
       </c>
@@ -1253,7 +1370,7 @@
       </c>
       <c r="F38" s="18"/>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:6" ht="16" x14ac:dyDescent="0.45">
       <c r="D39" s="16" t="s">
         <v>24</v>
       </c>
@@ -1262,7 +1379,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:6" ht="16" x14ac:dyDescent="0.45">
       <c r="D40" s="16" t="s">
         <v>25</v>
       </c>
@@ -1271,7 +1388,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="41" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D41" s="19" t="s">
         <v>26</v>
       </c>
@@ -1280,22 +1397,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E43" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E47" t="s">
         <v>55</v>
       </c>
@@ -1312,27 +1429,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69F2DD3-9123-4945-92C4-4A5C939C3AA7}">
-  <dimension ref="C3:O47"/>
+  <dimension ref="C3:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="N51" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="U55" sqref="U55:Z64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="3.7265625" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" customWidth="1"/>
+    <col min="10" max="10" width="4.81640625" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="15" width="11.36328125" customWidth="1"/>
+    <col min="18" max="20" width="15.6328125" customWidth="1"/>
+    <col min="21" max="21" width="3.90625" customWidth="1"/>
+    <col min="22" max="22" width="21.54296875" customWidth="1"/>
+    <col min="23" max="26" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D4" s="26"/>
       <c r="E4" s="27" t="s">
         <v>58</v>
@@ -1347,7 +1470,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D5" s="3" t="s">
         <v>57</v>
       </c>
@@ -1364,7 +1487,7 @@
         <v>0.61336847921577098</v>
       </c>
     </row>
-    <row r="6" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1504,7 @@
         <v>0.31536628357622398</v>
       </c>
     </row>
-    <row r="7" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
@@ -1398,12 +1521,12 @@
         <v>0.69781194559432203</v>
       </c>
     </row>
-    <row r="10" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D11" s="26"/>
       <c r="E11" s="27" t="s">
         <v>58</v>
@@ -1417,21 +1540,18 @@
       <c r="H11" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="38" t="s">
+      <c r="Q11" s="37"/>
+      <c r="R11" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="38" t="s">
+      <c r="S11" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="O11" s="39" t="s">
+      <c r="T11" s="58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
@@ -1447,23 +1567,20 @@
       <c r="H12" s="30">
         <v>0.63076619528760802</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="29">
-        <v>0.71232876712328697</v>
-      </c>
-      <c r="M12" s="29">
-        <v>0.69722426922132097</v>
-      </c>
-      <c r="N12" s="29">
-        <v>0.69847233895288396</v>
-      </c>
-      <c r="O12" s="30">
-        <v>0.69781194559432203</v>
-      </c>
-    </row>
-    <row r="13" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="Q12" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="29">
+        <v>0.82</v>
+      </c>
+      <c r="S12" s="29">
+        <v>0.76</v>
+      </c>
+      <c r="T12" s="30">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="13" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1479,23 +1596,20 @@
       <c r="H13" s="30">
         <v>0.38814970531461601</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="29">
-        <v>0.72945205479452002</v>
-      </c>
-      <c r="M13" s="29">
-        <v>0.71470949263502404</v>
-      </c>
-      <c r="N13" s="29">
-        <v>0.70754437138478199</v>
-      </c>
-      <c r="O13" s="30">
-        <v>0.71034292243749897</v>
-      </c>
-    </row>
-    <row r="14" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="S13" s="29">
+        <v>0.39</v>
+      </c>
+      <c r="T13" s="30">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="14" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D14" s="5" t="s">
         <v>1</v>
       </c>
@@ -1511,44 +1625,230 @@
       <c r="H14" s="32">
         <v>0.71034292243749897</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="33">
-        <v>0.77054794520547898</v>
-      </c>
-      <c r="M14" s="33">
-        <v>0.76375456694605603</v>
-      </c>
-      <c r="N14" s="33">
-        <v>0.742695407129084</v>
-      </c>
-      <c r="O14" s="34">
-        <v>0.74930483476210596</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="Q14" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="R14" s="43">
+        <v>0.7</v>
+      </c>
+      <c r="S14" s="43">
+        <v>0.78</v>
+      </c>
+      <c r="T14" s="44">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="15" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q15" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="R15" s="41">
+        <v>0.72</v>
+      </c>
+      <c r="S15" s="41">
+        <v>0.73</v>
+      </c>
+      <c r="T15" s="42">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="16" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="Q16" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="R16" s="50">
+        <v>0.68</v>
+      </c>
+      <c r="S16" s="50">
+        <v>0.67</v>
+      </c>
+      <c r="T16" s="51">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="Q17" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17" s="48">
+        <v>0.71</v>
+      </c>
+      <c r="S17" s="48">
+        <v>0.71</v>
+      </c>
+      <c r="T17" s="49">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="Q22" s="37"/>
+      <c r="R22" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="S22" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="T22" s="58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="Q23" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="R23" s="29">
+        <v>0.49</v>
+      </c>
+      <c r="S23" s="29">
+        <v>0.54</v>
+      </c>
+      <c r="T23" s="30">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="Q24" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="R24" s="29">
+        <v>0.42</v>
+      </c>
+      <c r="S24" s="29">
+        <v>0.84</v>
+      </c>
+      <c r="T24" s="30">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="Q25" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="R25" s="43">
+        <v>0.72</v>
+      </c>
+      <c r="S25" s="43">
+        <v>0.71</v>
+      </c>
+      <c r="T25" s="44">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="Q26" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="T26" s="45">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="Q27" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="R27" s="46">
+        <v>0.31</v>
+      </c>
+      <c r="S27" s="46">
+        <v>0.34</v>
+      </c>
+      <c r="T27" s="47">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="Q28" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="R28" s="46">
+        <v>0.51</v>
+      </c>
+      <c r="S28" s="46">
+        <v>0.2</v>
+      </c>
+      <c r="T28" s="47">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="Q29" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="R29" s="46">
+        <v>0.38</v>
+      </c>
+      <c r="S29" s="46">
+        <v>0.15</v>
+      </c>
+      <c r="T29" s="47">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="30" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E30" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q30" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="R30" s="48">
+        <v>0.86</v>
+      </c>
+      <c r="S30" s="48">
+        <v>0.27</v>
+      </c>
+      <c r="T30" s="49">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="Q31" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="R31" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="S31" s="50">
+        <v>0.47</v>
+      </c>
+      <c r="T31" s="51">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q32" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="R32" s="48">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S32" s="48">
+        <v>0.42</v>
+      </c>
+      <c r="T32" s="49">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D38" s="23"/>
       <c r="E38" s="24" t="s">
         <v>58</v>
@@ -1563,8 +1863,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="41" t="s">
+    <row r="39" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C39" s="39" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -1583,8 +1883,8 @@
         <v>0.67279797913555095</v>
       </c>
     </row>
-    <row r="40" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="41"/>
+    <row r="40" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C40" s="39"/>
       <c r="D40" s="3" t="s">
         <v>0</v>
       </c>
@@ -1601,8 +1901,8 @@
         <v>0.43547112012571298</v>
       </c>
     </row>
-    <row r="41" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="41"/>
+    <row r="41" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C41" s="39"/>
       <c r="D41" s="5" t="s">
         <v>1</v>
       </c>
@@ -1619,8 +1919,8 @@
         <v>0.74930483476210596</v>
       </c>
     </row>
-    <row r="42" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="41" t="s">
+    <row r="42" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C42" s="39" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -1639,8 +1939,8 @@
         <v>0.76745408441376495</v>
       </c>
     </row>
-    <row r="43" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="41"/>
+    <row r="43" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C43" s="39"/>
       <c r="D43" s="3" t="s">
         <v>0</v>
       </c>
@@ -1657,8 +1957,8 @@
         <v>0.80170419635977697</v>
       </c>
     </row>
-    <row r="44" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="41"/>
+    <row r="44" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C44" s="39"/>
       <c r="D44" s="5" t="s">
         <v>1</v>
       </c>
@@ -1675,8 +1975,8 @@
         <v>0.832534415102824</v>
       </c>
     </row>
-    <row r="45" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="41" t="s">
+    <row r="45" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C45" s="39" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -1695,8 +1995,8 @@
         <v>0.96864025846326696</v>
       </c>
     </row>
-    <row r="46" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="41"/>
+    <row r="46" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C46" s="39"/>
       <c r="D46" s="3" t="s">
         <v>0</v>
       </c>
@@ -1713,8 +2013,8 @@
         <v>0.936378967377819</v>
       </c>
     </row>
-    <row r="47" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="41"/>
+    <row r="47" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C47" s="39"/>
       <c r="D47" s="5" t="s">
         <v>1</v>
       </c>
@@ -1731,13 +2031,200 @@
         <v>0.92783759929390996</v>
       </c>
     </row>
+    <row r="54" spans="21:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="21:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="V55" s="59"/>
+      <c r="W55" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="X55" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y55" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z55" s="61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="21:26" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U56" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="V56" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="W56" s="62">
+        <v>0.68759999999999999</v>
+      </c>
+      <c r="X56" s="62">
+        <v>0.66969999999999996</v>
+      </c>
+      <c r="Y56" s="62">
+        <v>0.62395999999999996</v>
+      </c>
+      <c r="Z56" s="63">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="21:26" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U57" s="64"/>
+      <c r="V57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W57" s="29">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="X57" s="29">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="Y57" s="29">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="Z57" s="30">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="58" spans="21:26" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U58" s="64"/>
+      <c r="V58" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W58" s="33">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="X58" s="33">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="Y58" s="33">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="Z58" s="34">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="21:26" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U59" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="W59" s="29">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="X59" s="29">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="Y59" s="29">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="Z59" s="30">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="60" spans="21:26" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U60" s="64"/>
+      <c r="V60" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W60" s="29">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="X60" s="29">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="Y60" s="40">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="Z60" s="30">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="21:26" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U61" s="64"/>
+      <c r="V61" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W61" s="33">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="X61" s="33">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="Y61" s="65">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="Z61" s="34">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="62" spans="21:26" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U62" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="W62" s="29">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="X62" s="29">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="Y62" s="29">
+        <v>0.69840000000000002</v>
+      </c>
+      <c r="Z62" s="30">
+        <v>0.69779999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="21:26" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U63" s="64"/>
+      <c r="V63" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W63" s="29">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="X63" s="29">
+        <v>0.7147</v>
+      </c>
+      <c r="Y63" s="29">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="Z63" s="30">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="64" spans="21:26" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U64" s="64"/>
+      <c r="V64" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W64" s="33">
+        <v>0.77</v>
+      </c>
+      <c r="X64" s="33">
+        <v>0.76</v>
+      </c>
+      <c r="Y64" s="33">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="Z64" s="34">
+        <v>0.749</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="U62:U64"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="C45:C47"/>
+    <mergeCell ref="U56:U58"/>
+    <mergeCell ref="U59:U61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>